--- a/Hypoxic Volume.xlsx
+++ b/Hypoxic Volume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctgovexec-my.sharepoint.com/personal/katie_obrien-clayton_ct_gov/Documents/Shiny App DOcuments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44103DA1-F3BF-4110-9702-21D8C7D5EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5153034-696E-4E81-9BEB-71A85461D64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76B8C58B-6DE1-4C3F-A2F8-7966E8C7A62B}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Cruise</t>
   </si>
@@ -141,13 +130,16 @@
   </si>
   <si>
     <t>WQAUG22</t>
+  </si>
+  <si>
+    <t>HYAUG23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,97 +443,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.38</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.42</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.520000000000003</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.06</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.02</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.42</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.93</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.18</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.67</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.72</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.05</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.55</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.76</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.7</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.86</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.67</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.63</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.85</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.72</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.23</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.73</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.18</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.83</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.51</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.16</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.46</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.51</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.82</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,15 +1646,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774BFD58-6997-418E-AAA7-0DA65DEB8C36}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1672,356 +1668,367 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>4.1900000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="1">
         <v>1991</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1.38</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="1">
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>7.42</v>
+        <v>1.9</v>
       </c>
       <c r="C4" s="1">
         <v>1993</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>35.520000000000003</v>
+      <c r="B5" s="2">
+        <v>9.8000000000000007</v>
       </c>
       <c r="C5" s="1">
         <v>1994</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>21.06</v>
+      <c r="B6" s="2">
+        <v>5.7</v>
       </c>
       <c r="C6" s="1">
         <v>1995</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>9.02</v>
+      <c r="B7" s="2">
+        <v>2.6</v>
       </c>
       <c r="C7" s="1">
         <v>1996</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>1997</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>8.42</v>
+      <c r="B9" s="2">
+        <v>2.5</v>
       </c>
       <c r="C9" s="1">
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>4.93</v>
+      <c r="B10" s="2">
+        <v>1.4</v>
       </c>
       <c r="C10" s="1">
         <v>1999</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
-        <v>9.18</v>
+      <c r="B11" s="2">
+        <v>2.5</v>
       </c>
       <c r="C11" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
-        <v>8.0299999999999994</v>
+      <c r="B12" s="2">
+        <v>2.4</v>
       </c>
       <c r="C12" s="1">
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
-        <v>8.67</v>
+      <c r="B13" s="2">
+        <v>2.6</v>
       </c>
       <c r="C13" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>34.72</v>
+      <c r="B14" s="2">
+        <v>9.6</v>
       </c>
       <c r="C14" s="1">
         <v>2003</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
-        <v>14.05</v>
+      <c r="B15" s="2">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15" s="1">
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
-        <v>19.55</v>
+      <c r="B16" s="2">
+        <v>5.5</v>
       </c>
       <c r="C16" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
-        <v>13.76</v>
+      <c r="B17" s="2">
+        <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
-        <v>12.7</v>
+      <c r="B18" s="2">
+        <v>3.5</v>
       </c>
       <c r="C18" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
-        <v>25.86</v>
+      <c r="B19" s="2">
+        <v>6.9</v>
       </c>
       <c r="C19" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
-        <v>8.67</v>
+      <c r="B20" s="2">
+        <v>2.6</v>
       </c>
       <c r="C20" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
-        <v>5.63</v>
+      <c r="B21" s="2">
+        <v>1.6</v>
       </c>
       <c r="C21" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1">
-        <v>6.85</v>
+      <c r="B22" s="2">
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>14.72</v>
+      <c r="B23" s="2">
+        <v>4.3</v>
       </c>
       <c r="C23" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>3.23</v>
+      <c r="B24" s="2">
+        <v>0.9</v>
       </c>
       <c r="C24" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
-        <v>1.73</v>
+      <c r="B25" s="2">
+        <v>0.6</v>
       </c>
       <c r="C25" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
-        <v>1.18</v>
+      <c r="B26" s="2">
+        <v>0.3</v>
       </c>
       <c r="C26" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1">
-        <v>8.83</v>
+      <c r="B27" s="2">
+        <v>2.6</v>
       </c>
       <c r="C27" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.51</v>
+      <c r="B28" s="2">
+        <v>0.2</v>
       </c>
       <c r="C28" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.8</v>
+      <c r="B29" s="2">
+        <v>0.3</v>
       </c>
       <c r="C29" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1">
-        <v>4.16</v>
+      <c r="B30" s="2">
+        <v>1.3</v>
       </c>
       <c r="C30" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
-        <v>2.46</v>
+      <c r="B31" s="2">
+        <v>0.8</v>
       </c>
       <c r="C31" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1">
-        <v>8.51</v>
+      <c r="B32" s="2">
+        <v>2.5</v>
       </c>
       <c r="C32" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1">
-        <v>1.82</v>
+      <c r="B33" s="2">
+        <v>0.6</v>
       </c>
       <c r="C33" s="1">
         <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -2031,25 +2038,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="c867d1a5-5827-4927-b797-91c0fe867b8f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E1862A7241CD5C4BB9A49AEC91EB145E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cbe0e63a8c602f5c0e699e53fd8a45b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="26e7f4b6-3714-4cf5-b0ae-a47b16f23eba" xmlns:ns4="c867d1a5-5827-4927-b797-91c0fe867b8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea9d018f1eaac7e8d305a917a25e6e6f" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2281,14 +2269,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="c867d1a5-5827-4927-b797-91c0fe867b8f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E1903A-EEB9-4245-AC12-1E7F59FFF37B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1352E8F-8975-4947-A470-30E6AC264ED2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="26e7f4b6-3714-4cf5-b0ae-a47b16f23eba"/>
+    <ds:schemaRef ds:uri="c867d1a5-5827-4927-b797-91c0fe867b8f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4045E58C-C772-4FAA-9312-08684C499501}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4045E58C-C772-4FAA-9312-08684C499501}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1352E8F-8975-4947-A470-30E6AC264ED2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E1903A-EEB9-4245-AC12-1E7F59FFF37B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="c867d1a5-5827-4927-b797-91c0fe867b8f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>